--- a/tests/group.xlsx
+++ b/tests/group.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F95D32-174C-423E-BBAA-23078757096C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,14 +25,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCC</t>
+    <t>BBB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -167,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -344,18 +343,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -373,7 +372,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -381,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -389,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -397,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -405,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -413,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -421,22 +420,95 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="B17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="B18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>19</v>
+      <c r="B19">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tests/group.xlsx
+++ b/tests/group.xlsx
@@ -343,7 +343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +508,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
